--- a/Input.xlsx
+++ b/Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\machristiansen\Documents\GitHub\RTAC_AP_APR_Device\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74737E3F-E521-4A16-BE8B-501339EA7E33}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C29832D-291D-4A02-B671-39B698666C6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28068" yWindow="2628" windowWidth="15948" windowHeight="19368" xr2:uid="{98E79F5E-309F-495D-8B99-D449B9327134}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25560" xr2:uid="{98E79F5E-309F-495D-8B99-D449B9327134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Port</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>SEL_487E_P22_87OAB_TR6</t>
-  </si>
-  <si>
     <t>SEL_487B_P24_87BP_SBUS</t>
   </si>
   <si>
@@ -71,6 +68,12 @@
   </si>
   <si>
     <t>SEL_421_P28_THING</t>
+  </si>
+  <si>
+    <t>SEL_351S_1</t>
+  </si>
+  <si>
+    <t>whatever</t>
   </si>
 </sst>
 </file>
@@ -449,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB6C59D-7076-490B-A5B9-B7B38DE4A776}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -472,13 +475,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -486,10 +489,10 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -497,10 +500,10 @@
         <v>32500</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -508,10 +511,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -522,7 +525,7 @@
         <v>501</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -533,55 +536,63 @@
         <v>421</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>31</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2"/>
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>501</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -618,22 +629,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
